--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H2">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I2">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J2">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>45884.82207673602</v>
+        <v>125.6860796003662</v>
       </c>
       <c r="R2">
-        <v>412963.3986906242</v>
+        <v>1131.174716403296</v>
       </c>
       <c r="S2">
-        <v>0.07620209193438317</v>
+        <v>0.0004720296205396837</v>
       </c>
       <c r="T2">
-        <v>0.07620209193438317</v>
+        <v>0.0004720296205396838</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H3">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I3">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J3">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>75591.30629694724</v>
+        <v>121.8704167171218</v>
       </c>
       <c r="R3">
-        <v>680321.7566725252</v>
+        <v>1096.833750454096</v>
       </c>
       <c r="S3">
-        <v>0.1255364064013788</v>
+        <v>0.0004576994265467447</v>
       </c>
       <c r="T3">
-        <v>0.1255364064013788</v>
+        <v>0.0004576994265467448</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H4">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I4">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J4">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>66903.99982886865</v>
+        <v>124.1038454186133</v>
       </c>
       <c r="R4">
-        <v>602135.9984598178</v>
+        <v>1116.93460876752</v>
       </c>
       <c r="S4">
-        <v>0.1111091754308501</v>
+        <v>0.0004660873443322273</v>
       </c>
       <c r="T4">
-        <v>0.1111091754308501</v>
+        <v>0.0004660873443322273</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H5">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I5">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J5">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>30326.30690139121</v>
+        <v>49.51393226159823</v>
       </c>
       <c r="R5">
-        <v>272936.7621125209</v>
+        <v>445.625390354384</v>
       </c>
       <c r="S5">
-        <v>0.05036366977004779</v>
+        <v>0.0001859556979673803</v>
       </c>
       <c r="T5">
-        <v>0.0503636697700478</v>
+        <v>0.0001859556979673803</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>36.739876</v>
       </c>
       <c r="I6">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J6">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>1211.763456788741</v>
+        <v>2058.778070202693</v>
       </c>
       <c r="R6">
-        <v>10905.87111109867</v>
+        <v>18529.00263182423</v>
       </c>
       <c r="S6">
-        <v>0.002012406415840897</v>
+        <v>0.007731995733681612</v>
       </c>
       <c r="T6">
-        <v>0.002012406415840897</v>
+        <v>0.007731995733681615</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>36.739876</v>
       </c>
       <c r="I7">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J7">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
-        <v>1996.276295206703</v>
+        <v>1996.276295206704</v>
       </c>
       <c r="R7">
         <v>17966.48665686033</v>
       </c>
       <c r="S7">
-        <v>0.0033152668548953</v>
+        <v>0.007497262585601726</v>
       </c>
       <c r="T7">
-        <v>0.0033152668548953</v>
+        <v>0.007497262585601727</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>36.739876</v>
       </c>
       <c r="I8">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J8">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>1766.854886568849</v>
+        <v>2032.860569667427</v>
       </c>
       <c r="R8">
-        <v>15901.69397911964</v>
+        <v>18295.74512700684</v>
       </c>
       <c r="S8">
-        <v>0.002934260882081444</v>
+        <v>0.007634659354172463</v>
       </c>
       <c r="T8">
-        <v>0.002934260882081444</v>
+        <v>0.007634659354172464</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>36.739876</v>
       </c>
       <c r="I9">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J9">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>800.881616605369</v>
+        <v>811.0540024305366</v>
       </c>
       <c r="R9">
-        <v>7207.93454944832</v>
+        <v>7299.486021874829</v>
       </c>
       <c r="S9">
-        <v>0.001330044485626585</v>
+        <v>0.003046013641461074</v>
       </c>
       <c r="T9">
-        <v>0.001330044485626585</v>
+        <v>0.003046013641461074</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H10">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I10">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J10">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>10983.99766332804</v>
+        <v>3182.358425156205</v>
       </c>
       <c r="R10">
-        <v>98855.97896995235</v>
+        <v>28641.22582640584</v>
       </c>
       <c r="S10">
-        <v>0.01824140449641933</v>
+        <v>0.01195174075461712</v>
       </c>
       <c r="T10">
-        <v>0.01824140449641933</v>
+        <v>0.01195174075461713</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H11">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I11">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J11">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>18095.19344643049</v>
+        <v>3085.746238964558</v>
       </c>
       <c r="R11">
-        <v>162856.7410178744</v>
+        <v>27771.71615068102</v>
       </c>
       <c r="S11">
-        <v>0.03005114833548528</v>
+        <v>0.01158890173749959</v>
       </c>
       <c r="T11">
-        <v>0.03005114833548529</v>
+        <v>0.01158890173749959</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H12">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I12">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J12">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>16015.6091824573</v>
+        <v>3142.296420717196</v>
       </c>
       <c r="R12">
-        <v>144140.4826421157</v>
+        <v>28280.66778645477</v>
       </c>
       <c r="S12">
-        <v>0.02659752981641236</v>
+        <v>0.01180128294088363</v>
       </c>
       <c r="T12">
-        <v>0.02659752981641236</v>
+        <v>0.01180128294088364</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H13">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I13">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J13">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>7259.570138142401</v>
+        <v>1253.687600061412</v>
       </c>
       <c r="R13">
-        <v>65336.13124328161</v>
+        <v>11283.18840055271</v>
       </c>
       <c r="S13">
-        <v>0.01205615290706998</v>
+        <v>0.004708378875480263</v>
       </c>
       <c r="T13">
-        <v>0.01205615290706999</v>
+        <v>0.004708378875480264</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H14">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I14">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J14">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>68250.33375619866</v>
+        <v>74092.20976208951</v>
       </c>
       <c r="R14">
-        <v>614253.0038057879</v>
+        <v>666829.8878588055</v>
       </c>
       <c r="S14">
-        <v>0.1133450664523562</v>
+        <v>0.2782624596944135</v>
       </c>
       <c r="T14">
-        <v>0.1133450664523562</v>
+        <v>0.2782624596944136</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H15">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I15">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J15">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>112436.5672641327</v>
+        <v>71842.86842193728</v>
       </c>
       <c r="R15">
-        <v>1011929.105377194</v>
+        <v>646585.8157974356</v>
       </c>
       <c r="S15">
-        <v>0.1867262691161636</v>
+        <v>0.2698147800258914</v>
       </c>
       <c r="T15">
-        <v>0.1867262691161637</v>
+        <v>0.2698147800258914</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H16">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I16">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J16">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>99514.83107657192</v>
+        <v>73159.47936537466</v>
       </c>
       <c r="R16">
-        <v>895633.4796891473</v>
+        <v>658435.3142883719</v>
       </c>
       <c r="S16">
-        <v>0.165266812931074</v>
+        <v>0.2747594753016547</v>
       </c>
       <c r="T16">
-        <v>0.165266812931074</v>
+        <v>0.2747594753016547</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H17">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I17">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J17">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>45108.1746410924</v>
+        <v>29188.56779475471</v>
       </c>
       <c r="R17">
-        <v>405973.5717698316</v>
+        <v>262697.1101527924</v>
       </c>
       <c r="S17">
-        <v>0.07491229376991509</v>
+        <v>0.1096212772652569</v>
       </c>
       <c r="T17">
-        <v>0.07491229376991511</v>
+        <v>0.109621277265257</v>
       </c>
     </row>
   </sheetData>
